--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\PycharmProjects\PFE-Linkden\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="24270" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="24270" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="416">
   <si>
     <t xml:space="preserve">Administration publique </t>
   </si>
@@ -519,9 +519,6 @@
     <t>CateringChange</t>
   </si>
   <si>
-    <t>Management</t>
-  </si>
-  <si>
     <t>Coaching &amp; Mentoring</t>
   </si>
   <si>
@@ -891,9 +888,6 @@
     <t>RestaurationChanger</t>
   </si>
   <si>
-    <t>La gestion</t>
-  </si>
-  <si>
     <t>Le coaching mentorat</t>
   </si>
   <si>
@@ -1261,19 +1255,43 @@
   </si>
   <si>
     <t>Blog</t>
+  </si>
+  <si>
+    <t>Gestion des biens immobiliers</t>
+  </si>
+  <si>
+    <t>Gestion du changement</t>
+  </si>
+  <si>
+    <t>Gestion de programmes</t>
+  </si>
+  <si>
+    <t>Gestion de l’information</t>
+  </si>
+  <si>
+    <t>Gestion de contenu d’entreprise</t>
+  </si>
+  <si>
+    <t>Gestion du Cloud</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1296,7 +1314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1305,6 +1323,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1587,13 +1606,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="D144" sqref="A1:F146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1634,7 +1656,7 @@
         <v>148</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2:F65" si="0">CONCATENATE(A2,B2,C2,D2,E2)</f>
+        <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
         <v>&lt;option value="69"&gt;Administration scolaire et universitaire &lt;/option&gt;</v>
       </c>
     </row>
@@ -1655,7 +1677,7 @@
         <v>148</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A3,B3,C3,D3,E3)</f>
         <v>&lt;option value="52"&gt;Aéronautique et aérospatiale &lt;/option&gt;</v>
       </c>
     </row>
@@ -1676,7 +1698,7 @@
         <v>148</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A4,B4,C4,D4,E4)</f>
         <v>&lt;option value="74"&gt;Affaires étrangères &lt;/option&gt;</v>
       </c>
     </row>
@@ -1697,7 +1719,7 @@
         <v>148</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A5,B5,C5,D5,E5)</f>
         <v>&lt;option value="63"&gt;Agriculture &lt;/option&gt;</v>
       </c>
     </row>
@@ -1718,7 +1740,7 @@
         <v>148</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A6,B6,C6,D6,E6)</f>
         <v>&lt;option value="23"&gt;Agro-alimentaire &lt;/option&gt;</v>
       </c>
     </row>
@@ -1739,7 +1761,7 @@
         <v>148</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A7,B7,C7,D7,E7)</f>
         <v>&lt;option value="50"&gt;Architecture et urbanisme &lt;/option&gt;</v>
       </c>
     </row>
@@ -1760,7 +1782,7 @@
         <v>148</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A8,B8,C8,D8,E8)</f>
         <v>&lt;option value="71"&gt;Armée &lt;/option&gt;</v>
       </c>
     </row>
@@ -1781,7 +1803,7 @@
         <v>148</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A9,B9,C9,D9,E9)</f>
         <v>&lt;option value="143"&gt;Articles de luxe et bijouterie &lt;/option&gt;</v>
       </c>
     </row>
@@ -1802,7 +1824,7 @@
         <v>148</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A10,B10,C10,D10,E10)</f>
         <v>&lt;option value="20"&gt;Articles de sport &lt;/option&gt;</v>
       </c>
     </row>
@@ -1823,7 +1845,7 @@
         <v>148</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A11,B11,C11,D11,E11)</f>
         <v>&lt;option value="38"&gt;Arts &lt;/option&gt;</v>
       </c>
     </row>
@@ -1844,7 +1866,7 @@
         <v>148</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A12,B12,C12,D12,E12)</f>
         <v>&lt;option value="111"&gt;Arts et artisanat &lt;/option&gt;</v>
       </c>
     </row>
@@ -1865,7 +1887,7 @@
         <v>148</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A13,B13,C13,D13,E13)</f>
         <v>&lt;option value="39"&gt;Arts vivants &lt;/option&gt;</v>
       </c>
     </row>
@@ -1886,7 +1908,7 @@
         <v>148</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A14,B14,C14,D14,E14)</f>
         <v>&lt;option value="90"&gt;Associations et organisations sociales et syndicales &lt;/option&gt;</v>
       </c>
     </row>
@@ -1907,7 +1929,7 @@
         <v>148</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A15,B15,C15,D15,E15)</f>
         <v>&lt;option value="42"&gt;Assurances &lt;/option&gt;</v>
       </c>
     </row>
@@ -1928,7 +1950,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A16,B16,C16,D16,E16)</f>
         <v>&lt;option value="147"&gt;Automatismes industriels &lt;/option&gt;</v>
       </c>
     </row>
@@ -1949,7 +1971,7 @@
         <v>148</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A17,B17,C17,D17,E17)</f>
         <v>&lt;option value="9"&gt;Avocats &lt;/option&gt;</v>
       </c>
     </row>
@@ -1970,7 +1992,7 @@
         <v>148</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A18,B18,C18,D18,E18)</f>
         <v>&lt;option value="41"&gt;Banques &lt;/option&gt;</v>
       </c>
     </row>
@@ -1991,7 +2013,7 @@
         <v>148</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A19,B19,C19,D19,E19)</f>
         <v>&lt;option value="85"&gt;Bibliothèques &lt;/option&gt;</v>
       </c>
     </row>
@@ -2012,7 +2034,7 @@
         <v>148</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A20,B20,C20,D20,E20)</f>
         <v>&lt;option value="25"&gt;Biens de consommation&lt;/option&gt;</v>
       </c>
     </row>
@@ -2033,7 +2055,7 @@
         <v>148</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A21,B21,C21,D21,E21)</f>
         <v>&lt;option value="138"&gt;Biens et équipements pour les entreprises &lt;/option&gt;</v>
       </c>
     </row>
@@ -2054,7 +2076,7 @@
         <v>148</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A22,B22,C22,D22,E22)</f>
         <v>&lt;option value="12"&gt;Biotechnologie &lt;/option&gt;</v>
       </c>
     </row>
@@ -2073,7 +2095,7 @@
         <v>148</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A23,B23,C23,D23,E23)</f>
         <v>&lt;option value=""&gt;Bureau exécutif &lt;/option&gt;</v>
       </c>
     </row>
@@ -2094,7 +2116,7 @@
         <v>148</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A24,B24,C24,D24,E24)</f>
         <v>&lt;option value="106"&gt;Capital-risque et fonds LBO &lt;/option&gt;</v>
       </c>
     </row>
@@ -2113,7 +2135,7 @@
         <v>148</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A25,B25,C25,D25,E25)</f>
         <v>&lt;option value=""&gt;Centres de recherches &lt;/option&gt;</v>
       </c>
     </row>
@@ -2134,7 +2156,7 @@
         <v>148</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A26,B26,C26,D26,E26)</f>
         <v>&lt;option value="58"&gt;Chantiers navals &lt;/option&gt;</v>
       </c>
     </row>
@@ -2155,7 +2177,7 @@
         <v>148</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A27,B27,C27,D27,E27)</f>
         <v>&lt;option value="54"&gt;Chimie &lt;/option&gt;</v>
       </c>
     </row>
@@ -2176,7 +2198,7 @@
         <v>148</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A28,B28,C28,D28,E28)</f>
         <v>&lt;option value="148"&gt;Collectivités publiques et territoriales &lt;/option&gt;</v>
       </c>
     </row>
@@ -2197,7 +2219,7 @@
         <v>148</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A29,B29,C29,D29,E29)</f>
         <v>&lt;option value="27"&gt;Commerce de détail &lt;/option&gt;</v>
       </c>
     </row>
@@ -2218,7 +2240,7 @@
         <v>148</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A30,B30,C30,D30,E30)</f>
         <v>&lt;option value="133"&gt;Commerce de gros &lt;/option&gt;</v>
       </c>
     </row>
@@ -2239,7 +2261,7 @@
         <v>148</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A31,B31,C31,D31,E31)</f>
         <v>&lt;option value="141"&gt;Commerce et développement international &lt;/option&gt;</v>
       </c>
     </row>
@@ -2260,7 +2282,7 @@
         <v>148</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A32,B32,C32,D32,E32)</f>
         <v>&lt;option value="94"&gt;Compagnie aérienne/Aviation &lt;/option&gt;</v>
       </c>
     </row>
@@ -2281,7 +2303,7 @@
         <v>148</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A33,B33,C33,D33,E33)</f>
         <v>&lt;option value="47"&gt;Comptabilité &lt;/option&gt;</v>
       </c>
     </row>
@@ -2302,7 +2324,7 @@
         <v>148</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A34,B34,C34,D34,E34)</f>
         <v>&lt;option value="19"&gt;Confection et mode &lt;/option&gt;</v>
       </c>
     </row>
@@ -2323,7 +2345,7 @@
         <v>148</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A35,B35,C35,D35,E35)</f>
         <v>&lt;option value="11"&gt;Conseil en management &lt;/option&gt;</v>
       </c>
     </row>
@@ -2344,7 +2366,7 @@
         <v>148</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A36,B36,C36,D36,E36)</f>
         <v>&lt;option value="48"&gt;Construction &lt;/option&gt;</v>
       </c>
     </row>
@@ -2365,7 +2387,7 @@
         <v>148</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A37,B37,C37,D37,E37)</f>
         <v>&lt;option value="103"&gt;Contenus rédactionnels &lt;/option&gt;</v>
       </c>
     </row>
@@ -2386,7 +2408,7 @@
         <v>148</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A38,B38,C38,D38,E38)</f>
         <v>&lt;option value="18"&gt;Cosmétiques &lt;/option&gt;</v>
       </c>
     </row>
@@ -2407,7 +2429,7 @@
         <v>148</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A39,B39,C39,D39,E39)</f>
         <v>&lt;option value="1"&gt;Défense et espace &lt;/option&gt;</v>
       </c>
     </row>
@@ -2428,7 +2450,7 @@
         <v>148</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A40,B40,C40,D40,E40)</f>
         <v>&lt;option value="99"&gt;Design &lt;/option&gt;</v>
       </c>
     </row>
@@ -2449,7 +2471,7 @@
         <v>148</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A41,B41,C41,D41,E41)</f>
         <v>&lt;option value="140"&gt;Design graphique &lt;/option&gt;</v>
       </c>
     </row>
@@ -2470,7 +2492,7 @@
         <v>148</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A42,B42,C42,D42,E42)</f>
         <v>&lt;option value="28"&gt;Divertissements &lt;/option&gt;</v>
       </c>
     </row>
@@ -2491,7 +2513,7 @@
         <v>148</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A43,B43,C43,D43,E43)</f>
         <v>&lt;option value="82"&gt;Édition &lt;/option&gt;</v>
       </c>
     </row>
@@ -2512,7 +2534,7 @@
         <v>148</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A44,B44,C44,D44,E44)</f>
         <v>&lt;option value="102"&gt;Élaboration de programmes &lt;/option&gt;</v>
       </c>
     </row>
@@ -2533,7 +2555,7 @@
         <v>148</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A45,B45,C45,D45,E45)</f>
         <v>&lt;option value="64"&gt;Élevage &lt;/option&gt;</v>
       </c>
     </row>
@@ -2554,7 +2576,7 @@
         <v>148</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A46,B46,C46,D46,E46)</f>
         <v>&lt;option value="146"&gt;Emballages et conteneurs &lt;/option&gt;</v>
       </c>
     </row>
@@ -2575,7 +2597,7 @@
         <v>148</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A47,B47,C47,D47,E47)</f>
         <v>&lt;option value="68"&gt;Enseignement supérieur &lt;/option&gt;</v>
       </c>
     </row>
@@ -2596,7 +2618,7 @@
         <v>148</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A48,B48,C48,D48,E48)</f>
         <v>&lt;option value="93"&gt;Entreposage, stockage &lt;/option&gt;</v>
       </c>
     </row>
@@ -2617,7 +2639,7 @@
         <v>148</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A49,B49,C49,D49,E49)</f>
         <v>&lt;option value="144"&gt;Environnement et énergies renouvelables &lt;/option&gt;</v>
       </c>
     </row>
@@ -2638,7 +2660,7 @@
         <v>148</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A50,B50,C50,D50,E50)</f>
         <v>&lt;option value="122"&gt;Équipements collectifs &lt;/option&gt;</v>
       </c>
     </row>
@@ -2659,7 +2681,7 @@
         <v>148</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A51,B51,C51,D51,E51)</f>
         <v>&lt;option value="40"&gt;Équipements et services de loisirs &lt;/option&gt;</v>
       </c>
     </row>
@@ -2680,7 +2702,7 @@
         <v>148</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A52,B52,C52,D52,E52)</f>
         <v>&lt;option value="62"&gt;Équipements ferroviaires &lt;/option&gt;</v>
       </c>
     </row>
@@ -2701,7 +2723,7 @@
         <v>148</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A53,B53,C53,D53,E53)</f>
         <v>&lt;option value="17"&gt;Équipements médicaux &lt;/option&gt;</v>
       </c>
     </row>
@@ -2722,7 +2744,7 @@
         <v>148</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A54,B54,C54,D54,E54)</f>
         <v>&lt;option value="70"&gt;Études/recherche &lt;/option&gt;</v>
       </c>
     </row>
@@ -2743,7 +2765,7 @@
         <v>148</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A55,B55,C55,D55,E55)</f>
         <v>&lt;option value="97"&gt;Études de marché &lt;/option&gt;</v>
       </c>
     </row>
@@ -2764,7 +2786,7 @@
         <v>148</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A56,B56,C56,D56,E56)</f>
         <v>&lt;option value="123"&gt;Externalisation/délocalisation &lt;/option&gt;</v>
       </c>
     </row>
@@ -2785,7 +2807,7 @@
         <v>148</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A57,B57,C57,D57,E57)</f>
         <v>&lt;option value="127"&gt;Films d’animation &lt;/option&gt;</v>
       </c>
     </row>
@@ -2806,7 +2828,7 @@
         <v>148</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A58,B58,C58,D58,E58)</f>
         <v>&lt;option value="132"&gt;Formation à distance &lt;/option&gt;</v>
       </c>
     </row>
@@ -2827,7 +2849,7 @@
         <v>148</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A59,B59,C59,D59,E59)</f>
         <v>&lt;option value="67"&gt;Formation primaire/secondaire &lt;/option&gt;</v>
       </c>
     </row>
@@ -2848,7 +2870,7 @@
         <v>148</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A60,B60,C60,D60,E60)</f>
         <v>&lt;option value="105"&gt;Formation professionnelle et coaching &lt;/option&gt;</v>
       </c>
     </row>
@@ -2869,7 +2891,7 @@
         <v>148</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A61,B61,C61,D61,E61)</f>
         <v>&lt;option value="51"&gt;Génie civil &lt;/option&gt;</v>
       </c>
     </row>
@@ -2890,7 +2912,7 @@
         <v>148</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A62,B62,C62,D62,E62)</f>
         <v>&lt;option value="46"&gt;Gestion de portefeuilles &lt;/option&gt;</v>
       </c>
     </row>
@@ -2911,7 +2933,7 @@
         <v>148</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A63,B63,C63,D63,E63)</f>
         <v>&lt;option value="100"&gt;Gestion des associations et fondations &lt;/option&gt;</v>
       </c>
     </row>
@@ -2932,7 +2954,7 @@
         <v>148</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A64,B64,C64,D64,E64)</f>
         <v>&lt;option value="22"&gt;Grande distribution &lt;/option&gt;</v>
       </c>
     </row>
@@ -2953,7 +2975,7 @@
         <v>148</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A65,B65,C65,D65,E65)</f>
         <v>&lt;option value="14"&gt;Hôpitaux et centres de soins &lt;/option&gt;</v>
       </c>
     </row>
@@ -2974,7 +2996,7 @@
         <v>148</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" ref="F66:F129" si="1">CONCATENATE(A66,B66,C66,D66,E66)</f>
+        <f>CONCATENATE(A66,B66,C66,D66,E66)</f>
         <v>&lt;option value="31"&gt;Hôtellerie et hébergement &lt;/option&gt;</v>
       </c>
     </row>
@@ -2995,7 +3017,7 @@
         <v>148</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A67,B67,C67,D67,E67)</f>
         <v>&lt;option value="131"&gt;Humanitaire &lt;/option&gt;</v>
       </c>
     </row>
@@ -3016,7 +3038,7 @@
         <v>148</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A68,B68,C68,D68,E68)</f>
         <v>&lt;option value="44"&gt;Immobilier &lt;/option&gt;</v>
       </c>
     </row>
@@ -3037,7 +3059,7 @@
         <v>148</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A69,B69,C69,D69,E69)</f>
         <v>&lt;option value="128"&gt;Immobilier commercial &lt;/option&gt;</v>
       </c>
     </row>
@@ -3058,7 +3080,7 @@
         <v>148</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A70,B70,C70,D70,E70)</f>
         <v>&lt;option value="134"&gt;Import et export &lt;/option&gt;</v>
       </c>
     </row>
@@ -3079,7 +3101,7 @@
         <v>148</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A71,B71,C71,D71,E71)</f>
         <v>&lt;option value="83"&gt;Imprimerie, reproduction &lt;/option&gt;</v>
       </c>
     </row>
@@ -3100,7 +3122,7 @@
         <v>148</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A72,B72,C72,D72,E72)</f>
         <v>&lt;option value="53"&gt;Industrie automobile &lt;/option&gt;</v>
       </c>
     </row>
@@ -3121,7 +3143,7 @@
         <v>148</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A73,B73,C73,D73,E73)</f>
         <v>&lt;option value="61"&gt;Industrie bois et papiers &lt;/option&gt;</v>
       </c>
     </row>
@@ -3142,7 +3164,7 @@
         <v>148</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A74,B74,C74,D74,E74)</f>
         <v>&lt;option value="112"&gt;Industrie composants électriques/électroniques&lt;/option&gt;</v>
       </c>
     </row>
@@ -3163,7 +3185,7 @@
         <v>148</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A75,B75,C75,D75,E75)</f>
         <v>&lt;option value="35"&gt;Industrie du cinéma &lt;/option&gt;</v>
       </c>
     </row>
@@ -3184,7 +3206,7 @@
         <v>148</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A76,B76,C76,D76,E76)</f>
         <v>&lt;option value="15"&gt;Industrie pharmaceutique &lt;/option&gt;</v>
       </c>
     </row>
@@ -3205,7 +3227,7 @@
         <v>148</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A77,B77,C77,D77,E77)</f>
         <v>&lt;option value="60"&gt;Industrie textile &lt;/option&gt;</v>
       </c>
     </row>
@@ -3226,7 +3248,7 @@
         <v>148</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A78,B78,C78,D78,E78)</f>
         <v>&lt;option value="101"&gt;Ingénierie du mécénat &lt;/option&gt;</v>
       </c>
     </row>
@@ -3247,7 +3269,7 @@
         <v>148</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A79,B79,C79,D79,E79)</f>
         <v>&lt;option value="135"&gt;Ingénierie mécanique ou industrielle &lt;/option&gt;</v>
       </c>
     </row>
@@ -3268,7 +3290,7 @@
         <v>148</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A80,B80,C80,D80,E80)</f>
         <v>&lt;option value="73"&gt;Institutions judiciaires &lt;/option&gt;</v>
       </c>
     </row>
@@ -3289,7 +3311,7 @@
         <v>148</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A81,B81,C81,D81,E81)</f>
         <v>&lt;option value="89"&gt;Institutions religieuses &lt;/option&gt;</v>
       </c>
     </row>
@@ -3310,7 +3332,7 @@
         <v>148</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A82,B82,C82,D82,E82)</f>
         <v>&lt;option value="6"&gt;Internet &lt;/option&gt;</v>
       </c>
     </row>
@@ -3331,7 +3353,7 @@
         <v>148</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A83,B83,C83,D83,E83)</f>
         <v>&lt;option value="29"&gt;Jeux d’argent et casinos&lt;/option&gt;</v>
       </c>
     </row>
@@ -3352,7 +3374,7 @@
         <v>148</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A84,B84,C84,D84,E84)</f>
         <v>&lt;option value="109"&gt;Jeux électroniques &lt;/option&gt;</v>
       </c>
     </row>
@@ -3373,7 +3395,7 @@
         <v>148</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A85,B85,C85,D85,E85)</f>
         <v>&lt;option value="4"&gt;Logiciels informatiques &lt;/option&gt;</v>
       </c>
     </row>
@@ -3394,7 +3416,7 @@
         <v>148</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A86,B86,C86,D86,E86)</f>
         <v>&lt;option value="116"&gt;Logistique et chaîne d’approvisionnement &lt;/option&gt;</v>
       </c>
     </row>
@@ -3415,7 +3437,7 @@
         <v>148</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A87,B87,C87,D87,E87)</f>
         <v>&lt;option value="30"&gt;Loisirs, voyages et tourisme &lt;/option&gt;</v>
       </c>
     </row>
@@ -3436,7 +3458,7 @@
         <v>148</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A88,B88,C88,D88,E88)</f>
         <v>&lt;option value="55"&gt;Machines et équipements &lt;/option&gt;</v>
       </c>
     </row>
@@ -3457,7 +3479,7 @@
         <v>148</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A89,B89,C89,D89,E89)</f>
         <v>&lt;option value="129"&gt;Marchés des capitaux &lt;/option&gt;</v>
       </c>
     </row>
@@ -3478,7 +3500,7 @@
         <v>148</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A90,B90,C90,D90,E90)</f>
         <v>&lt;option value="80"&gt;Marketing et publicité &lt;/option&gt;</v>
       </c>
     </row>
@@ -3499,7 +3521,7 @@
         <v>148</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A91,B91,C91,D91,E91)</f>
         <v>&lt;option value="49"&gt;Matériaux de construction &lt;/option&gt;</v>
       </c>
     </row>
@@ -3520,7 +3542,7 @@
         <v>148</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A92,B92,C92,D92,E92)</f>
         <v>&lt;option value="3"&gt;Matériel informatique &lt;/option&gt;</v>
       </c>
     </row>
@@ -3541,7 +3563,7 @@
         <v>148</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A93,B93,C93,D93,E93)</f>
         <v>&lt;option value="59"&gt;Matières premières &lt;/option&gt;</v>
       </c>
     </row>
@@ -3562,7 +3584,7 @@
         <v>148</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A94,B94,C94,D94,E94)</f>
         <v>&lt;option value="125"&gt;Médecines alternatives &lt;/option&gt;</v>
       </c>
     </row>
@@ -3583,7 +3605,7 @@
         <v>148</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A95,B95,C95,D95,E95)</f>
         <v>&lt;option value="113"&gt;Médias en ligne &lt;/option&gt;</v>
       </c>
     </row>
@@ -3604,7 +3626,7 @@
         <v>148</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A96,B96,C96,D96,E96)</f>
         <v>&lt;option value="36"&gt;Médias radio et télédiffusés &lt;/option&gt;</v>
       </c>
     </row>
@@ -3625,7 +3647,7 @@
         <v>148</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A97,B97,C97,D97,E97)</f>
         <v>&lt;option value="87"&gt;Messageries et fret &lt;/option&gt;</v>
       </c>
     </row>
@@ -3646,7 +3668,7 @@
         <v>148</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A98,B98,C98,D98,E98)</f>
         <v>&lt;option value="26"&gt;Meubles &lt;/option&gt;</v>
       </c>
     </row>
@@ -3667,7 +3689,7 @@
         <v>148</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A99,B99,C99,D99,E99)</f>
         <v>&lt;option value="56"&gt;Mines et métaux &lt;/option&gt;</v>
       </c>
     </row>
@@ -3688,7 +3710,7 @@
         <v>148</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A100,B100,C100,D100,E100)</f>
         <v>&lt;option value="37"&gt;Musées et institutions culturelles &lt;/option&gt;</v>
       </c>
     </row>
@@ -3709,7 +3731,7 @@
         <v>148</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A101,B101,C101,D101,E101)</f>
         <v>&lt;option value="115"&gt;Musique &lt;/option&gt;</v>
       </c>
     </row>
@@ -3730,7 +3752,7 @@
         <v>148</v>
       </c>
       <c r="F102" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A102,B102,C102,D102,E102)</f>
         <v>&lt;option value="114"&gt;Nanotechnologies &lt;/option&gt;</v>
       </c>
     </row>
@@ -3751,7 +3773,7 @@
         <v>148</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A103,B103,C103,D103,E103)</f>
         <v>&lt;option value="110"&gt;Organisation d’événements &lt;/option&gt;</v>
       </c>
     </row>
@@ -3772,7 +3794,7 @@
         <v>148</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A104,B104,C104,D104,E104)</f>
         <v>&lt;option value="107"&gt;Parti politique &lt;/option&gt;</v>
       </c>
     </row>
@@ -3793,7 +3815,7 @@
         <v>148</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A105,B105,C105,D105,E105)</f>
         <v>&lt;option value="66"&gt;Pêche &lt;/option&gt;</v>
       </c>
     </row>
@@ -3814,7 +3836,7 @@
         <v>148</v>
       </c>
       <c r="F106" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A106,B106,C106,D106,E106)</f>
         <v>&lt;option value="57"&gt;Pétrole et énergie &lt;/option&gt;</v>
       </c>
     </row>
@@ -3835,7 +3857,7 @@
         <v>148</v>
       </c>
       <c r="F107" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A107,B107,C107,D107,E107)</f>
         <v>&lt;option value="136"&gt;Photographie &lt;/option&gt;</v>
       </c>
     </row>
@@ -3856,7 +3878,7 @@
         <v>148</v>
       </c>
       <c r="F108" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A108,B108,C108,D108,E108)</f>
         <v>&lt;option value="117"&gt;Plastiques &lt;/option&gt;</v>
       </c>
     </row>
@@ -3877,7 +3899,7 @@
         <v>148</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A109,B109,C109,D109,E109)</f>
         <v>&lt;option value="77"&gt;Police/gendarmerie &lt;/option&gt;</v>
       </c>
     </row>
@@ -3898,7 +3920,7 @@
         <v>148</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A110,B110,C110,D110,E110)</f>
         <v>&lt;option value="79"&gt;Politiques publiques &lt;/option&gt;</v>
       </c>
     </row>
@@ -3919,7 +3941,7 @@
         <v>148</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A111,B111,C111,D111,E111)</f>
         <v>&lt;option value="81"&gt;Presse écrite &lt;/option&gt;</v>
       </c>
     </row>
@@ -3940,7 +3962,7 @@
         <v>148</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A112,B112,C112,D112,E112)</f>
         <v>&lt;option value="126"&gt;Production audiovisuelle &lt;/option&gt;</v>
       </c>
     </row>
@@ -3961,7 +3983,7 @@
         <v>148</v>
       </c>
       <c r="F113" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A113,B113,C113,D113,E113)</f>
         <v>&lt;option value="24"&gt;Produits électroniques grand public &lt;/option&gt;</v>
       </c>
     </row>
@@ -3982,7 +4004,7 @@
         <v>148</v>
       </c>
       <c r="F114" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A114,B114,C114,D114,E114)</f>
         <v>&lt;option value="13"&gt;Professions médicales &lt;/option&gt;</v>
       </c>
     </row>
@@ -4003,7 +4025,7 @@
         <v>148</v>
       </c>
       <c r="F115" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A115,B115,C115,D115,E115)</f>
         <v>&lt;option value="104"&gt;Recrutement &lt;/option&gt;</v>
       </c>
     </row>
@@ -4024,7 +4046,7 @@
         <v>148</v>
       </c>
       <c r="F116" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A116,B116,C116,D116,E116)</f>
         <v>&lt;option value="120"&gt;Règlement extrajudiciaire de conflits &lt;/option&gt;</v>
       </c>
     </row>
@@ -4045,7 +4067,7 @@
         <v>148</v>
       </c>
       <c r="F117" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A117,B117,C117,D117,E117)</f>
         <v>&lt;option value="98"&gt;Relations publiques et communication &lt;/option&gt;</v>
       </c>
     </row>
@@ -4066,7 +4088,7 @@
         <v>148</v>
       </c>
       <c r="F118" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A118,B118,C118,D118,E118)</f>
         <v>&lt;option value="5"&gt;Réseaux informatiques &lt;/option&gt;</v>
       </c>
     </row>
@@ -4087,7 +4109,7 @@
         <v>148</v>
       </c>
       <c r="F119" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A119,B119,C119,D119,E119)</f>
         <v>&lt;option value="137"&gt;Ressources humaines &lt;/option&gt;</v>
       </c>
     </row>
@@ -4108,7 +4130,7 @@
         <v>148</v>
       </c>
       <c r="F120" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A120,B120,C120,D120,E120)</f>
         <v>&lt;option value="32"&gt;Restaurants &lt;/option&gt;</v>
       </c>
     </row>
@@ -4129,7 +4151,7 @@
         <v>148</v>
       </c>
       <c r="F121" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A121,B121,C121,D121,E121)</f>
         <v>&lt;option value="34"&gt;Restauration collective &lt;/option&gt;</v>
       </c>
     </row>
@@ -4150,7 +4172,7 @@
         <v>148</v>
       </c>
       <c r="F122" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A122,B122,C122,D122,E122)</f>
         <v>&lt;option value="124"&gt;Santé, forme et bien-être &lt;/option&gt;</v>
       </c>
     </row>
@@ -4171,7 +4193,7 @@
         <v>148</v>
       </c>
       <c r="F123" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A123,B123,C123,D123,E123)</f>
         <v>&lt;option value="65"&gt;Secteur laitier &lt;/option&gt;</v>
       </c>
     </row>
@@ -4192,7 +4214,7 @@
         <v>148</v>
       </c>
       <c r="F124" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A124,B124,C124,D124,E124)</f>
         <v>&lt;option value="139"&gt;Secteur médico-psychologique &lt;/option&gt;</v>
       </c>
     </row>
@@ -4213,7 +4235,7 @@
         <v>148</v>
       </c>
       <c r="F125" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A125,B125,C125,D125,E125)</f>
         <v>&lt;option value="78"&gt;Sécurité civile &lt;/option&gt;</v>
       </c>
     </row>
@@ -4234,7 +4256,7 @@
         <v>148</v>
       </c>
       <c r="F126" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A126,B126,C126,D126,E126)</f>
         <v>&lt;option value="121"&gt;Sécurité et enquêtes &lt;/option&gt;</v>
       </c>
     </row>
@@ -4255,7 +4277,7 @@
         <v>148</v>
       </c>
       <c r="F127" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A127,B127,C127,D127,E127)</f>
         <v>&lt;option value="118"&gt;Sécurité informatique et des réseaux &lt;/option&gt;</v>
       </c>
     </row>
@@ -4276,7 +4298,7 @@
         <v>148</v>
       </c>
       <c r="F128" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A128,B128,C128,D128,E128)</f>
         <v>&lt;option value="7"&gt;Semi-conducteurs &lt;/option&gt;</v>
       </c>
     </row>
@@ -4297,7 +4319,7 @@
         <v>148</v>
       </c>
       <c r="F129" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A129,B129,C129,D129,E129)</f>
         <v>&lt;option value="88"&gt;Services à la personne &lt;/option&gt;</v>
       </c>
     </row>
@@ -4318,7 +4340,7 @@
         <v>148</v>
       </c>
       <c r="F130" s="1" t="str">
-        <f t="shared" ref="F130:F146" si="2">CONCATENATE(A130,B130,C130,D130,E130)</f>
+        <f>CONCATENATE(A130,B130,C130,D130,E130)</f>
         <v>&lt;option value="91"&gt;Services aux consommateurs &lt;/option&gt;</v>
       </c>
     </row>
@@ -4339,7 +4361,7 @@
         <v>148</v>
       </c>
       <c r="F131" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A131,B131,C131,D131,E131)</f>
         <v>&lt;option value="84"&gt;Services d’information &lt;/option&gt;</v>
       </c>
     </row>
@@ -4360,7 +4382,7 @@
         <v>148</v>
       </c>
       <c r="F132" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A132,B132,C132,D132,E132)</f>
         <v>&lt;option value="45"&gt;Services d’investissement &lt;/option&gt;</v>
       </c>
     </row>
@@ -4381,7 +4403,7 @@
         <v>148</v>
       </c>
       <c r="F133" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A133,B133,C133,D133,E133)</f>
         <v>&lt;option value="43"&gt;Services financiers &lt;/option&gt;</v>
       </c>
     </row>
@@ -4402,7 +4424,7 @@
         <v>148</v>
       </c>
       <c r="F134" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A134,B134,C134,D134,E134)</f>
         <v>&lt;option value="10"&gt;Services juridiques &lt;/option&gt;</v>
       </c>
     </row>
@@ -4423,7 +4445,7 @@
         <v>148</v>
       </c>
       <c r="F135" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A135,B135,C135,D135,E135)</f>
         <v>&lt;option value="86"&gt;Services pour l’environnement &lt;/option&gt;</v>
       </c>
     </row>
@@ -4444,7 +4466,7 @@
         <v>148</v>
       </c>
       <c r="F136" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A136,B136,C136,D136,E136)</f>
         <v>&lt;option value="33"&gt;Sports &lt;/option&gt;</v>
       </c>
     </row>
@@ -4465,7 +4487,7 @@
         <v>148</v>
       </c>
       <c r="F137" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A137,B137,C137,D137,E137)</f>
         <v>&lt;option value="21"&gt;Tabac &lt;/option&gt;</v>
       </c>
     </row>
@@ -4486,7 +4508,7 @@
         <v>148</v>
       </c>
       <c r="F138" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A138,B138,C138,D138,E138)</f>
         <v>&lt;option value="96"&gt;Technologies et services de l’information &lt;/option&gt;</v>
       </c>
     </row>
@@ -4507,7 +4529,7 @@
         <v>148</v>
       </c>
       <c r="F139" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A139,B139,C139,D139,E139)</f>
         <v>&lt;option value="119"&gt;Technologies sans fil &lt;/option&gt;</v>
       </c>
     </row>
@@ -4528,7 +4550,7 @@
         <v>148</v>
       </c>
       <c r="F140" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A140,B140,C140,D140,E140)</f>
         <v>&lt;option value="8"&gt;Télécommunications &lt;/option&gt;</v>
       </c>
     </row>
@@ -4549,7 +4571,7 @@
         <v>148</v>
       </c>
       <c r="F141" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A141,B141,C141,D141,E141)</f>
         <v>&lt;option value="108"&gt;Traduction et adaptation &lt;/option&gt;</v>
       </c>
     </row>
@@ -4570,7 +4592,7 @@
         <v>148</v>
       </c>
       <c r="F142" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A142,B142,C142,D142,E142)</f>
         <v>&lt;option value="95"&gt;Transports maritimes &lt;/option&gt;</v>
       </c>
     </row>
@@ -4591,7 +4613,7 @@
         <v>148</v>
       </c>
       <c r="F143" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A143,B143,C143,D143,E143)</f>
         <v>&lt;option value="92"&gt;Transports routiers et ferroviaires &lt;/option&gt;</v>
       </c>
     </row>
@@ -4612,7 +4634,7 @@
         <v>148</v>
       </c>
       <c r="F144" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A144,B144,C144,D144,E144)</f>
         <v>&lt;option value="145"&gt;Verres, céramiques et ciments &lt;/option&gt;</v>
       </c>
     </row>
@@ -4633,7 +4655,7 @@
         <v>148</v>
       </c>
       <c r="F145" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A145,B145,C145,D145,E145)</f>
         <v>&lt;option value="16"&gt;Vétérinaire &lt;/option&gt;</v>
       </c>
     </row>
@@ -4654,7 +4676,7 @@
         <v>148</v>
       </c>
       <c r="F146" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A146,B146,C146,D146,E146)</f>
         <v>&lt;option value="142"&gt;Vins et spiritueux &lt;/option&gt;</v>
       </c>
     </row>
@@ -4666,10 +4688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G35" sqref="E1:G35"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4685,7 +4707,7 @@
         <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C1">
         <v>71</v>
@@ -4696,7 +4718,7 @@
         <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2">
         <v>344</v>
@@ -4707,7 +4729,7 @@
         <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C3">
         <v>69</v>
@@ -4718,7 +4740,7 @@
         <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4">
         <v>26904</v>
@@ -4729,7 +4751,7 @@
         <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C5">
         <v>56843</v>
@@ -4740,7 +4762,7 @@
         <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C6">
         <v>2117</v>
@@ -4751,7 +4773,7 @@
         <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C7">
         <v>55462</v>
@@ -4762,7 +4784,7 @@
         <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C8">
         <v>55462</v>
@@ -4773,7 +4795,7 @@
         <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C9">
         <v>3037</v>
@@ -4784,7 +4806,7 @@
         <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C10">
         <v>622</v>
@@ -4795,7 +4817,7 @@
         <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C11">
         <v>987</v>
@@ -4806,7 +4828,7 @@
         <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C12">
         <v>50369</v>
@@ -4817,7 +4839,7 @@
         <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C13">
         <v>50369</v>
@@ -4828,7 +4850,7 @@
         <v>162</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14">
         <v>55806</v>
@@ -4839,954 +4861,1011 @@
         <v>163</v>
       </c>
       <c r="B15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C16">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C18">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C19">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C23">
+        <v>55799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B35" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B36" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B37" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B38" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B39" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B40" t="s">
-        <v>311</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B42" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B43" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B45" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B46" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B49" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B50" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B51" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B52" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B53" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B54" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B56" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B57" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B58" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B59" t="s">
-        <v>207</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B60" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B61" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B62" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B63" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B64" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B65" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B66" t="s">
-        <v>336</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B67" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B69" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B70" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B71" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B72" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B73" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B74" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B75" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B76" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B77" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B78" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B79" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B80" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B81" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B82" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B83" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B84" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B85" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B86" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B87" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B88" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B89" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B90" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B91" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B92" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B93" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B94" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B95" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B96" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B97" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B98" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B99" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B100" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B101" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B102" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B103" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B104" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B105" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B106" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B107" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B108" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B109" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B110" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B111" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B112" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B113" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B114" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B115" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B116" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B117" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B118" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B119" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B120" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B121" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B122" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B123" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B124" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B125" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B126" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B127" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B128" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B129" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B130" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B131" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B132" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B133" t="s">
-        <v>403</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>275</v>
+      </c>
+      <c r="B135" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>276</v>
+      </c>
+      <c r="B136" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>277</v>
+      </c>
+      <c r="B137" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>278</v>
+      </c>
+      <c r="B138" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>280</v>
+      </c>
+      <c r="B140" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>